--- a/biology/Zoologie/Centropyge_bispinosa/Centropyge_bispinosa.xlsx
+++ b/biology/Zoologie/Centropyge_bispinosa/Centropyge_bispinosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poisson-ange à deux épines
 Centropyge bispinosa, communément nommé Poisson-ange à deux épines, est une espèce de poisson marin de la famille des Pomacanthidae.
@@ -512,9 +524,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Poisson-ange à deux épines est présent dans les eaux tropicales de l'Indo-Pacifique, Mer Rouge exclue[2]. C'est une espèce très discrète qui fréquente les lagons et les herbiers en zone peu profonde ayant une forte densité de corail avec suffisamment de mouvements d'eau[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Poisson-ange à deux épines est présent dans les eaux tropicales de l'Indo-Pacifique, Mer Rouge exclue. C'est une espèce très discrète qui fréquente les lagons et les herbiers en zone peu profonde ayant une forte densité de corail avec suffisamment de mouvements d'eau.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Poisson-ange à deux épines est un poisson de l’océan Indien et de l’océan Pacifique. Sa robe suit un dégradé du violet vers l’orangé. Il peut mesurer jusqu’à 10 cm[4]. Il se nourrit principalement d'algues[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Poisson-ange à deux épines est un poisson de l’océan Indien et de l’océan Pacifique. Sa robe suit un dégradé du violet vers l’orangé. Il peut mesurer jusqu’à 10 cm. Il se nourrit principalement d'algues.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces poissons sont des hermaphrodites protogynes : ils sont d’abord des femelles puis se transforment en mâles.
 </t>
